--- a/Questions/koreanDrama.xlsx
+++ b/Questions/koreanDrama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C1A232-5F1E-5746-92CA-2DE3CA2F7E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDB9405-B005-EC4D-B77C-027CAD5B88B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="17240" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,26 @@
   </si>
   <si>
     <t>1l33XN1b1tI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사생활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김탁구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>션샤인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이생처</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +794,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1046,7 +1066,9 @@
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
@@ -1080,7 +1102,9 @@
       <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
@@ -1097,7 +1121,9 @@
       <c r="D18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
@@ -1201,7 +1227,9 @@
       <c r="D24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
@@ -1516,7 +1544,9 @@
       <c r="D43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" s="1"/>

--- a/Questions/koreanDrama.xlsx
+++ b/Questions/koreanDrama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDB9405-B005-EC4D-B77C-027CAD5B88B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C110C21A-F944-3148-8B63-2BAB0FA4E7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구그달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>oKjT6LEOPxo</t>
   </si>
   <si>
@@ -400,6 +396,10 @@
   </si>
   <si>
     <t>이생처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구그달 구르미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="J107" sqref="A44:J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1103,7 +1103,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1122,7 +1122,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1228,7 +1228,7 @@
         <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1247,7 +1247,7 @@
         <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1257,13 +1257,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1274,16 +1274,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1293,13 +1293,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1310,13 +1310,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1327,13 +1327,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1">
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1344,13 +1344,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1361,16 +1361,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1380,13 +1380,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1397,13 +1397,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1412,16 +1412,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1429,16 +1429,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1446,13 +1446,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="1">
         <v>71</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -1461,13 +1461,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1">
         <v>40</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1476,13 +1476,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1">
         <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1491,13 +1491,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1">
         <v>147</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1506,13 +1506,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1521,13 +1521,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -1536,16 +1536,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1">
         <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:7">

--- a/Questions/koreanDrama.xlsx
+++ b/Questions/koreanDrama.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C110C21A-F944-3148-8B63-2BAB0FA4E7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ADFBE0-195E-3748-9603-EB6A645FF840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -333,9 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XbtFndhXrB8</t>
-  </si>
-  <si>
     <t>검사프린세스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,6 +395,10 @@
   </si>
   <si>
     <t>구그달 구르미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q39oQ8d5abk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J107" sqref="A44:J107"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -827,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1067,7 +1066,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1103,7 +1102,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1122,7 +1121,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1228,7 +1227,7 @@
         <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1247,7 +1246,7 @@
         <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1461,13 +1460,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1">
         <v>40</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1476,13 +1475,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="1">
         <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1491,13 +1490,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1">
         <v>147</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1506,13 +1505,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1521,13 +1520,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -1536,16 +1535,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1">
         <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1564,30 +1563,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>